--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Feuille6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Feuille7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Feuille8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Feuille9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -71,16 +71,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -175,41 +172,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -217,243 +214,135 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -465,87 +354,87 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="C5:D7 C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.11" customWidth="1" style="4" min="1" max="893"/>
-    <col width="11.52" customWidth="1" style="4" min="894" max="1024"/>
+    <col width="11.11" customWidth="1" style="3" min="1" max="893"/>
+    <col width="11.52" customWidth="1" style="3" min="894" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.05" customHeight="1" s="5">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="15.75" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Multiplisme</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16.05" customHeight="1" s="5">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="16.05" customHeight="1" s="5">
-      <c r="A3" s="4" t="n">
+    <row r="2" ht="15.75" customHeight="1" s="4">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="4">
+      <c r="A3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="16.05" customHeight="1" s="5">
-      <c r="A4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16.05" customHeight="1" s="5">
-      <c r="A5" s="4" t="n">
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="4">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="4">
+      <c r="A5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10" ht="12.8" customHeight="1" s="5">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -576,109 +465,106 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="4" min="955" max="1024"/>
+    <col width="11.52" customWidth="1" style="3" min="955" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="5">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Multiplisme</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Colonne de(s) maximum(s)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="5">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="4">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="5">
-      <c r="A3" s="4" t="n">
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="A3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Absolutisme_Multiplisme</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="5">
-      <c r="A4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
+    <row r="4" ht="12.75" customHeight="1" s="4">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Evaluatisme_Absolutisme_Multiplisme</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="A5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
-        <f>A10+B10</f>
-        <v/>
-      </c>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -707,27 +593,24 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C5:D7 C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
-        <f>A10+B10</f>
-        <v/>
-      </c>
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -756,24 +639,24 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -805,24 +688,24 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -854,24 +737,24 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -903,24 +786,24 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -952,24 +835,24 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -1001,24 +884,24 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="4"/>
+    <row r="7" ht="12.75" customHeight="1" s="4"/>
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -564,7 +564,10 @@
       <c r="B10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="n"/>
+      <c r="C10" s="3">
+        <f>A10+B10</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -610,7 +613,10 @@
       <c r="B10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="n"/>
+      <c r="C10" s="3">
+        <f>A10+B10</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -91,6 +91,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,7 +358,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="C5:D7 C11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -465,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:D7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -558,13 +561,13 @@
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -596,7 +599,7 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C5:D7 C10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -607,13 +610,13 @@
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -645,7 +648,7 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -656,13 +659,13 @@
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -694,7 +697,7 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -705,13 +708,13 @@
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -743,7 +746,7 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -754,13 +757,13 @@
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -792,7 +795,7 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -803,13 +806,13 @@
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -841,7 +844,7 @@
   <dimension ref="A5:D10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -852,13 +855,13 @@
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -889,8 +892,8 @@
   </sheetPr>
   <dimension ref="A5:D10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C5:D7 A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="A8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -901,13 +904,13 @@
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -363,81 +363,81 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.11" customWidth="1" style="3" min="1" max="893"/>
-    <col width="11.52" customWidth="1" style="3" min="894" max="1024"/>
+    <col width="11.11" customWidth="1" style="5" min="1" max="893"/>
+    <col width="11.52" customWidth="1" style="5" min="894" max="1024"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="4">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="4">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="4">
-      <c r="A4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="A4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="4">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
@@ -474,87 +474,87 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="3" min="955" max="1024"/>
+    <col width="11.52" customWidth="1" style="5" min="955" max="1024"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Multiplisme</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Colonne de(s) maximum(s)</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="4">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="4">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="B3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Absolutisme_Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="4">
-      <c r="A4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Evaluatisme_Absolutisme_Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -605,7 +605,7 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
@@ -654,7 +654,7 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
@@ -703,7 +703,7 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
@@ -752,7 +752,7 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
@@ -801,7 +801,7 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
@@ -850,7 +850,7 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
@@ -899,7 +899,7 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -355,7 +355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A8:D14"/>
@@ -442,8 +442,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -466,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A8:D14"/>
@@ -572,8 +577,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -596,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D10"/>
+  <dimension ref="A5:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:D14"/>
@@ -621,8 +631,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -645,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D10"/>
+  <dimension ref="A5:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A8:D14"/>
@@ -670,8 +685,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -694,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D10"/>
+  <dimension ref="A5:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="A8:D14"/>
@@ -719,8 +739,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -743,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D10"/>
+  <dimension ref="A5:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="A8:D14"/>
@@ -768,8 +793,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -792,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D10"/>
+  <dimension ref="A5:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="A8:D14"/>
@@ -817,8 +847,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -841,7 +876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D10"/>
+  <dimension ref="A5:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="A8:D14"/>
@@ -866,8 +901,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -890,7 +930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D10"/>
+  <dimension ref="A5:D15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="A8:D14"/>
@@ -915,8 +955,13 @@
         <v/>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="C12:D15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -77,7 +77,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -91,9 +91,6 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,100 +352,103 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="C5:D7 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.11" customWidth="1" style="5" min="1" max="893"/>
-    <col width="11.52" customWidth="1" style="5" min="894" max="1024"/>
+    <col width="11.11" customWidth="1" style="3" min="1" max="893"/>
+    <col width="11.52" customWidth="1" style="3" min="894" max="1024"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="4">
-      <c r="A2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="4">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="n">
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="4">
-      <c r="A4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="n">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="4">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
+    <mergeCell ref="E12:G15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -471,119 +471,122 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C5:D7 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="5" min="955" max="1024"/>
+    <col width="11.52" customWidth="1" style="3" min="955" max="1024"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Multiplisme</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Colonne de(s) maximum(s)</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="4">
-      <c r="A2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="4">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Absolutisme_Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="4">
-      <c r="A4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Evaluatisme_Absolutisme_Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
+    <mergeCell ref="E12:G15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -606,38 +609,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D15"/>
+  <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C5:D7 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="5" t="n"/>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
+    <mergeCell ref="E12:G15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -660,38 +666,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D15"/>
+  <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="C5:D7 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="5" t="n"/>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
+    <mergeCell ref="E12:G15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -714,38 +723,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D15"/>
+  <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="C5:D7 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="5" t="n"/>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
+    <mergeCell ref="E12:G15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -768,38 +780,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D15"/>
+  <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="C5:D7 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="5" t="n"/>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
+    <mergeCell ref="E12:G15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -822,38 +837,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D15"/>
+  <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="C5:D7 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="5" t="n"/>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
+    <mergeCell ref="E12:G15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -876,39 +894,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D15"/>
+  <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="5" t="n"/>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C12:D15"/>
-    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E12:G15"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -930,39 +950,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:D15"/>
+  <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="A8:D14"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="5" t="n"/>
+      <c r="C5" s="3" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="A10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="C12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4"/>
+    <row r="14" ht="12.75" customHeight="1" s="4"/>
+    <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C12:D15"/>
-    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E12:G15"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Feuille6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Feuille7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Feuille8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Feuille9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -352,10 +352,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="C5:D7 A11"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -439,16 +439,12 @@
         <v/>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-    </row>
+    <row r="12" ht="12.75" customHeight="1" s="4"/>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
     <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C12:D15"/>
-    <mergeCell ref="E12:G15"/>
+  <mergeCells count="1">
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -474,7 +470,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C5:D7 C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -579,6 +575,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
       <c r="C12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
@@ -612,7 +609,7 @@
   <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C5:D7 C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -636,6 +633,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
       <c r="C12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
@@ -669,7 +667,7 @@
   <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="C5:D7 D13"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -693,6 +691,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
       <c r="C12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
@@ -726,7 +725,7 @@
   <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="1" sqref="C5:D7 C14"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -750,6 +749,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
       <c r="C12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
@@ -783,7 +783,7 @@
   <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="C5:D7 D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -807,6 +807,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
       <c r="C12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
@@ -840,7 +841,7 @@
   <dimension ref="A5:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="C5:D7 C11"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -864,6 +865,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
       <c r="C12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
@@ -894,10 +896,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:G15"/>
+  <dimension ref="A5:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:D7"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -921,14 +923,19 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
       <c r="C12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
     <row r="15" ht="12.75" customHeight="1" s="4"/>
+    <row r="23" ht="12.75" customHeight="1" s="4">
+      <c r="C23" s="3" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
     <mergeCell ref="E12:G15"/>
+    <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -952,8 +959,8 @@
   </sheetPr>
   <dimension ref="A5:G15"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5:D7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
@@ -977,14 +984,16 @@
     </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
       <c r="C12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" s="4"/>
     <row r="14" ht="12.75" customHeight="1" s="4"/>
     <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
     <mergeCell ref="E12:G15"/>
+    <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
@@ -444,7 +444,8 @@
     <row r="14" ht="12.75" customHeight="1" s="4"/>
     <row r="15" ht="12.75" customHeight="1" s="4"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="E12:G15"/>
     <mergeCell ref="C5:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/fichiers_xls/test_merging.xlsx
+++ b/fichiers_xls/test_merging.xlsx
@@ -77,7 +77,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -91,6 +91,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,97 +355,182 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L23" activeCellId="0" sqref="L23"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.11" customWidth="1" style="3" min="1" max="893"/>
-    <col width="11.52" customWidth="1" style="3" min="894" max="1024"/>
+    <col width="11.11" customWidth="1" style="5" min="1" max="893"/>
+    <col width="11.52" customWidth="1" style="5" min="894" max="1024"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" s="4">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" s="4">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" s="4">
-      <c r="A4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="A4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="4">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="4"/>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+    <row r="11" ht="12.75" customHeight="1" s="4">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="4">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <f>D16+E16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" s="4">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <f>D17+E17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" s="4">
+      <c r="B18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" s="4">
+      <c r="B19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E12:G15"/>
@@ -468,119 +556,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="3" min="955" max="1024"/>
+    <col width="11.52" customWidth="1" style="5" min="955" max="1024"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Multiplisme</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Colonne de(s) maximum(s)</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="4">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Absolutisme</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="4">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="B3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Absolutisme_Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="4">
-      <c r="A4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Evaluatisme_Absolutisme_Multiplisme</t>
         </is>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
@@ -607,38 +755,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:G15"/>
+  <dimension ref="A5:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C11:C15 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
@@ -665,38 +873,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:G15"/>
+  <dimension ref="A5:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="C11:C15 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
@@ -723,38 +991,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:G15"/>
+  <dimension ref="A5:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="C11:C15 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
@@ -781,38 +1109,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:G15"/>
+  <dimension ref="A5:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="C11:C15 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
@@ -839,38 +1227,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:G15"/>
+  <dimension ref="A5:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="C11:C15 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
@@ -900,37 +1348,97 @@
   <dimension ref="A5:G23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="C11:C15 C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
     <row r="23" ht="12.75" customHeight="1" s="4">
-      <c r="C23" s="3" t="n"/>
+      <c r="C23" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -958,38 +1466,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A5:G15"/>
+  <dimension ref="A5:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="C11:C15 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4"/>
     <row r="7" ht="12.75" customHeight="1" s="4"/>
     <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
         <f>A10+B10</f>
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="C12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4"/>
-    <row r="14" ht="12.75" customHeight="1" s="4"/>
-    <row r="15" ht="12.75" customHeight="1" s="4"/>
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="5">
+        <f>B18+C18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="5">
+        <f>B19+C19</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C12:D15"/>
